--- a/data/6378.xlsx
+++ b/data/6378.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1216"/>
+  <dimension ref="A1:I1217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43332,6 +43332,41 @@
         <v>2600</v>
       </c>
     </row>
+    <row r="1217">
+      <c r="A1217" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1217" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1217" t="inlineStr">
+        <is>
+          <t>6378</t>
+        </is>
+      </c>
+      <c r="D1217" t="inlineStr">
+        <is>
+          <t>WMG</t>
+        </is>
+      </c>
+      <c r="E1217" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F1217" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G1217" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H1217" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I1217" t="n">
+        <v>163500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6378.xlsx
+++ b/data/6378.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43367,6 +43367,41 @@
         <v>163500</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>6378</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>WMG</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>4200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6378.xlsx
+++ b/data/6378.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43402,6 +43402,41 @@
         <v>4200</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>6378</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>WMG</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>138500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6378.xlsx
+++ b/data/6378.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43437,6 +43437,41 @@
         <v>138500</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>6378</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>WMG</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>1800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6378.xlsx
+++ b/data/6378.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43472,6 +43472,41 @@
         <v>1800</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>6378</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>WMG</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>38300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6378.xlsx
+++ b/data/6378.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43507,6 +43507,41 @@
         <v>38300</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>6378</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>WMG</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>6600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6378.xlsx
+++ b/data/6378.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43542,6 +43542,41 @@
         <v>6600</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>6378</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>WMG</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>40000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6378.xlsx
+++ b/data/6378.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43577,6 +43577,41 @@
         <v>40000</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>6378</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>WMG</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>60000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6378.xlsx
+++ b/data/6378.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43612,6 +43612,43 @@
         <v>60000</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>6378</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>WMG</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I1225" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6378.xlsx
+++ b/data/6378.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43649,6 +43649,43 @@
         </is>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>6378</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>WMG</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I1226" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6378.xlsx
+++ b/data/6378.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43686,6 +43686,41 @@
         </is>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>6378</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>WMG</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>181000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6378.xlsx
+++ b/data/6378.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43721,6 +43721,43 @@
         <v>181000</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>6378</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>WMG</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I1228" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6378.xlsx
+++ b/data/6378.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43758,6 +43758,41 @@
         </is>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>6378</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>WMG</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>73800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6378.xlsx
+++ b/data/6378.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43793,6 +43793,78 @@
         <v>73800</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>6378</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>WMG</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I1230" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>6378</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>WMG</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>48100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6378.xlsx
+++ b/data/6378.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1232"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43865,6 +43865,41 @@
         <v>48100</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>6378</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>WMG</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>37200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6378.xlsx
+++ b/data/6378.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1232"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43900,6 +43900,43 @@
         <v>37200</v>
       </c>
     </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>6378</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>WMG</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I1233" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6378.xlsx
+++ b/data/6378.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43937,6 +43937,41 @@
         </is>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>6378</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>WMG</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>408500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6378.xlsx
+++ b/data/6378.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43972,6 +43972,41 @@
         <v>408500</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>6378</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>WMG</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>25000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6378.xlsx
+++ b/data/6378.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44007,6 +44007,78 @@
         <v>25000</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>6378</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>WMG</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I1236" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>6378</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>WMG</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>566000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6378.xlsx
+++ b/data/6378.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1238"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44079,6 +44079,41 @@
         <v>566000</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>6378</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>WMG</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>72000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6378.xlsx
+++ b/data/6378.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1238"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44114,6 +44114,41 @@
         <v>72000</v>
       </c>
     </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>6378</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>WMG</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>160500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6378.xlsx
+++ b/data/6378.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2513"/>
+  <dimension ref="A1:I2514"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88739,6 +88739,41 @@
         <v>160500</v>
       </c>
     </row>
+    <row r="2514">
+      <c r="A2514" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2514" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2514" t="inlineStr">
+        <is>
+          <t>6378</t>
+        </is>
+      </c>
+      <c r="D2514" t="inlineStr">
+        <is>
+          <t>WMG</t>
+        </is>
+      </c>
+      <c r="E2514" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F2514" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G2514" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="H2514" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="I2514" t="n">
+        <v>230200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6378.xlsx
+++ b/data/6378.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2514"/>
+  <dimension ref="A1:I2515"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88774,6 +88774,41 @@
         <v>230200</v>
       </c>
     </row>
+    <row r="2515">
+      <c r="A2515" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2515" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2515" t="inlineStr">
+        <is>
+          <t>6378</t>
+        </is>
+      </c>
+      <c r="D2515" t="inlineStr">
+        <is>
+          <t>WMG</t>
+        </is>
+      </c>
+      <c r="E2515" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="F2515" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G2515" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="H2515" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I2515" t="n">
+        <v>180700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6378.xlsx
+++ b/data/6378.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2515"/>
+  <dimension ref="A1:I2516"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88809,6 +88809,41 @@
         <v>180700</v>
       </c>
     </row>
+    <row r="2516">
+      <c r="A2516" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2516" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2516" t="inlineStr">
+        <is>
+          <t>6378</t>
+        </is>
+      </c>
+      <c r="D2516" t="inlineStr">
+        <is>
+          <t>WMG</t>
+        </is>
+      </c>
+      <c r="E2516" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F2516" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G2516" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H2516" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I2516" t="n">
+        <v>19700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6378.xlsx
+++ b/data/6378.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2516"/>
+  <dimension ref="A1:I2517"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88844,6 +88844,41 @@
         <v>19700</v>
       </c>
     </row>
+    <row r="2517">
+      <c r="A2517" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2517" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2517" t="inlineStr">
+        <is>
+          <t>6378</t>
+        </is>
+      </c>
+      <c r="D2517" t="inlineStr">
+        <is>
+          <t>WMG</t>
+        </is>
+      </c>
+      <c r="E2517" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F2517" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G2517" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H2517" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I2517" t="n">
+        <v>5100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6378.xlsx
+++ b/data/6378.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2517"/>
+  <dimension ref="A1:I2518"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88879,6 +88879,41 @@
         <v>5100</v>
       </c>
     </row>
+    <row r="2518">
+      <c r="A2518" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2518" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2518" t="inlineStr">
+        <is>
+          <t>6378</t>
+        </is>
+      </c>
+      <c r="D2518" t="inlineStr">
+        <is>
+          <t>WMG</t>
+        </is>
+      </c>
+      <c r="E2518" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F2518" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G2518" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H2518" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I2518" t="n">
+        <v>21300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6378.xlsx
+++ b/data/6378.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2518"/>
+  <dimension ref="A1:I2519"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88914,6 +88914,41 @@
         <v>21300</v>
       </c>
     </row>
+    <row r="2519">
+      <c r="A2519" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2519" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2519" t="inlineStr">
+        <is>
+          <t>6378</t>
+        </is>
+      </c>
+      <c r="D2519" t="inlineStr">
+        <is>
+          <t>WMG</t>
+        </is>
+      </c>
+      <c r="E2519" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F2519" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G2519" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H2519" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I2519" t="n">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6378.xlsx
+++ b/data/6378.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2519"/>
+  <dimension ref="A1:I2520"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88949,6 +88949,41 @@
         <v>100</v>
       </c>
     </row>
+    <row r="2520">
+      <c r="A2520" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2520" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2520" t="inlineStr">
+        <is>
+          <t>6378</t>
+        </is>
+      </c>
+      <c r="D2520" t="inlineStr">
+        <is>
+          <t>WMG</t>
+        </is>
+      </c>
+      <c r="E2520" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F2520" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G2520" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H2520" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I2520" t="n">
+        <v>60000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6378.xlsx
+++ b/data/6378.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2520"/>
+  <dimension ref="A1:I2521"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88984,6 +88984,41 @@
         <v>60000</v>
       </c>
     </row>
+    <row r="2521">
+      <c r="A2521" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2521" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2521" t="inlineStr">
+        <is>
+          <t>6378</t>
+        </is>
+      </c>
+      <c r="D2521" t="inlineStr">
+        <is>
+          <t>WMG</t>
+        </is>
+      </c>
+      <c r="E2521" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F2521" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G2521" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H2521" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I2521" t="n">
+        <v>101800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6378.xlsx
+++ b/data/6378.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2521"/>
+  <dimension ref="A1:I2522"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89019,6 +89019,41 @@
         <v>101800</v>
       </c>
     </row>
+    <row r="2522">
+      <c r="A2522" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2522" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2522" t="inlineStr">
+        <is>
+          <t>6378</t>
+        </is>
+      </c>
+      <c r="D2522" t="inlineStr">
+        <is>
+          <t>WMG</t>
+        </is>
+      </c>
+      <c r="E2522" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F2522" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G2522" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H2522" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I2522" t="n">
+        <v>120200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6378.xlsx
+++ b/data/6378.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2522"/>
+  <dimension ref="A1:I2523"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89054,6 +89054,43 @@
         <v>120200</v>
       </c>
     </row>
+    <row r="2523">
+      <c r="A2523" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2523" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2523" t="inlineStr">
+        <is>
+          <t>6378</t>
+        </is>
+      </c>
+      <c r="D2523" t="inlineStr">
+        <is>
+          <t>WMG</t>
+        </is>
+      </c>
+      <c r="E2523" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F2523" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G2523" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H2523" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I2523" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6378.xlsx
+++ b/data/6378.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2523"/>
+  <dimension ref="A1:I2524"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89091,6 +89091,41 @@
         </is>
       </c>
     </row>
+    <row r="2524">
+      <c r="A2524" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2524" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2524" t="inlineStr">
+        <is>
+          <t>6378</t>
+        </is>
+      </c>
+      <c r="D2524" t="inlineStr">
+        <is>
+          <t>WMG</t>
+        </is>
+      </c>
+      <c r="E2524" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F2524" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G2524" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H2524" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I2524" t="n">
+        <v>73900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6378.xlsx
+++ b/data/6378.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2524"/>
+  <dimension ref="A1:I2525"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89126,6 +89126,41 @@
         <v>73900</v>
       </c>
     </row>
+    <row r="2525">
+      <c r="A2525" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2525" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2525" t="inlineStr">
+        <is>
+          <t>6378</t>
+        </is>
+      </c>
+      <c r="D2525" t="inlineStr">
+        <is>
+          <t>WMG</t>
+        </is>
+      </c>
+      <c r="E2525" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F2525" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G2525" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H2525" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I2525" t="n">
+        <v>20000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6378.xlsx
+++ b/data/6378.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2525"/>
+  <dimension ref="A1:I2526"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89161,6 +89161,41 @@
         <v>20000</v>
       </c>
     </row>
+    <row r="2526">
+      <c r="A2526" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2526" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2526" t="inlineStr">
+        <is>
+          <t>6378</t>
+        </is>
+      </c>
+      <c r="D2526" t="inlineStr">
+        <is>
+          <t>WMG</t>
+        </is>
+      </c>
+      <c r="E2526" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F2526" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G2526" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H2526" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I2526" t="n">
+        <v>46600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6378.xlsx
+++ b/data/6378.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2526"/>
+  <dimension ref="A1:I2527"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89196,6 +89196,43 @@
         <v>46600</v>
       </c>
     </row>
+    <row r="2527">
+      <c r="A2527" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2527" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2527" t="inlineStr">
+        <is>
+          <t>6378</t>
+        </is>
+      </c>
+      <c r="D2527" t="inlineStr">
+        <is>
+          <t>WMG</t>
+        </is>
+      </c>
+      <c r="E2527" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F2527" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G2527" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H2527" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I2527" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
